--- a/jlptstudy.net/Vocabulary.xlsx
+++ b/jlptstudy.net/Vocabulary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2713" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1788">
   <si>
     <t>ああ</t>
   </si>
@@ -4169,6 +4169,1221 @@
   </si>
   <si>
     <t>two</t>
+  </si>
+  <si>
+    <t>にぎやか</t>
+  </si>
+  <si>
+    <t>bustling, busy</t>
+  </si>
+  <si>
+    <t>にく</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>にし</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>～にち</t>
+  </si>
+  <si>
+    <t>～日</t>
+  </si>
+  <si>
+    <t>～ day of the month, for ～ days</t>
+  </si>
+  <si>
+    <t>にちようび</t>
+  </si>
+  <si>
+    <t>日曜日</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>にもつ</t>
+  </si>
+  <si>
+    <t>荷物</t>
+  </si>
+  <si>
+    <t>luggage</t>
+  </si>
+  <si>
+    <t>ニュース</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>にわ</t>
+  </si>
+  <si>
+    <t>庭</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>ぬぐ</t>
+  </si>
+  <si>
+    <t>脱ぐ</t>
+  </si>
+  <si>
+    <t>to take off clothes</t>
+  </si>
+  <si>
+    <t>ぬるい</t>
+  </si>
+  <si>
+    <t>温い</t>
+  </si>
+  <si>
+    <t>lukewarm</t>
+  </si>
+  <si>
+    <t>ネクタイ</t>
+  </si>
+  <si>
+    <t>tie, necktie</t>
+  </si>
+  <si>
+    <t>ねこ</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>ねる</t>
+  </si>
+  <si>
+    <t>寝る</t>
+  </si>
+  <si>
+    <t>to go to bed, to sleep</t>
+  </si>
+  <si>
+    <t>～ねん</t>
+  </si>
+  <si>
+    <t>～年</t>
+  </si>
+  <si>
+    <t>～ years</t>
+  </si>
+  <si>
+    <t>ノート</t>
+  </si>
+  <si>
+    <t>notebook, exercise book</t>
+  </si>
+  <si>
+    <t>のぼる</t>
+  </si>
+  <si>
+    <t>登る</t>
+  </si>
+  <si>
+    <t>to climb</t>
+  </si>
+  <si>
+    <t>のみもの</t>
+  </si>
+  <si>
+    <t>飲み物</t>
+  </si>
+  <si>
+    <t>drink, beverage</t>
+  </si>
+  <si>
+    <t>のむ</t>
+  </si>
+  <si>
+    <t>飲む</t>
+  </si>
+  <si>
+    <t>to drink</t>
+  </si>
+  <si>
+    <t>のる</t>
+  </si>
+  <si>
+    <t>乗る</t>
+  </si>
+  <si>
+    <t>to get on, to ride in, to board</t>
+  </si>
+  <si>
+    <t>は</t>
+  </si>
+  <si>
+    <t>歯</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>パーティー</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>～はい</t>
+  </si>
+  <si>
+    <t>～杯</t>
+  </si>
+  <si>
+    <t>counter for cupfuls</t>
+  </si>
+  <si>
+    <t>はいざら</t>
+  </si>
+  <si>
+    <t>灰皿</t>
+  </si>
+  <si>
+    <t>ashtray</t>
+  </si>
+  <si>
+    <t>はいる</t>
+  </si>
+  <si>
+    <t>入る</t>
+  </si>
+  <si>
+    <t>to enter, to contain, to hold</t>
+  </si>
+  <si>
+    <t>はがき</t>
+  </si>
+  <si>
+    <t>葉書</t>
+  </si>
+  <si>
+    <t>postcard</t>
+  </si>
+  <si>
+    <t>はく</t>
+  </si>
+  <si>
+    <t>to wear, to put on (trousers)</t>
+  </si>
+  <si>
+    <t>はこ</t>
+  </si>
+  <si>
+    <t>箱</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>はし</t>
+  </si>
+  <si>
+    <t>橋</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>chopsticks</t>
+  </si>
+  <si>
+    <t>はじまる</t>
+  </si>
+  <si>
+    <t>始まる</t>
+  </si>
+  <si>
+    <t>to begin</t>
+  </si>
+  <si>
+    <t>はじめ</t>
+  </si>
+  <si>
+    <t>初め/始め</t>
+  </si>
+  <si>
+    <t>beginning, start</t>
+  </si>
+  <si>
+    <t>はじめて</t>
+  </si>
+  <si>
+    <t>初めて</t>
+  </si>
+  <si>
+    <t>for the first time</t>
+  </si>
+  <si>
+    <t>はしる</t>
+  </si>
+  <si>
+    <t>走る</t>
+  </si>
+  <si>
+    <t>to run</t>
+  </si>
+  <si>
+    <t>バス</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>バター</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>はたち</t>
+  </si>
+  <si>
+    <t>二十歳</t>
+  </si>
+  <si>
+    <t>20 years old, 20th year</t>
+  </si>
+  <si>
+    <t>はたらく</t>
+  </si>
+  <si>
+    <t>働く</t>
+  </si>
+  <si>
+    <t>to work</t>
+  </si>
+  <si>
+    <t>はち</t>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>はつか</t>
+  </si>
+  <si>
+    <t>二十日</t>
+  </si>
+  <si>
+    <t>twenty days, twentieth (day of the month)</t>
+  </si>
+  <si>
+    <t>はな</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>鼻</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>はなし</t>
+  </si>
+  <si>
+    <t>話</t>
+  </si>
+  <si>
+    <t>talk, story</t>
+  </si>
+  <si>
+    <t>はなす</t>
+  </si>
+  <si>
+    <t>話す</t>
+  </si>
+  <si>
+    <t>to speak</t>
+  </si>
+  <si>
+    <t>はは</t>
+  </si>
+  <si>
+    <t>母</t>
+  </si>
+  <si>
+    <t>(one's own) mother</t>
+  </si>
+  <si>
+    <t>はやい</t>
+  </si>
+  <si>
+    <t>早い</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>速い</t>
+  </si>
+  <si>
+    <t>quick, fast</t>
+  </si>
+  <si>
+    <t>はる</t>
+  </si>
+  <si>
+    <t>春</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>貼る</t>
+  </si>
+  <si>
+    <t>to stick, to paste</t>
+  </si>
+  <si>
+    <t>はれ</t>
+  </si>
+  <si>
+    <t>晴れ</t>
+  </si>
+  <si>
+    <t>clear weather</t>
+  </si>
+  <si>
+    <t>はれる</t>
+  </si>
+  <si>
+    <t>晴れる</t>
+  </si>
+  <si>
+    <t>to be sunny</t>
+  </si>
+  <si>
+    <t>はん</t>
+  </si>
+  <si>
+    <t>半</t>
+  </si>
+  <si>
+    <t>n-adv,n,n-suf</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>ばん</t>
+  </si>
+  <si>
+    <t>晩</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>～ばん</t>
+  </si>
+  <si>
+    <t>～番</t>
+  </si>
+  <si>
+    <t>～st/th best</t>
+  </si>
+  <si>
+    <t>パン</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ハンカチ</t>
+  </si>
+  <si>
+    <t>handkerchief</t>
+  </si>
+  <si>
+    <t>ばんごう</t>
+  </si>
+  <si>
+    <t>番号</t>
+  </si>
+  <si>
+    <t>ばんごはん</t>
+  </si>
+  <si>
+    <t>晩御飯</t>
+  </si>
+  <si>
+    <t>dinner, evening meal</t>
+  </si>
+  <si>
+    <t>はんぶん</t>
+  </si>
+  <si>
+    <t>半分</t>
+  </si>
+  <si>
+    <t>ひがし</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>～ひき</t>
+  </si>
+  <si>
+    <t>～匹</t>
+  </si>
+  <si>
+    <t>counter for small animals</t>
+  </si>
+  <si>
+    <t>ひく</t>
+  </si>
+  <si>
+    <t>引く</t>
+  </si>
+  <si>
+    <t>to pull</t>
+  </si>
+  <si>
+    <t>弾く</t>
+  </si>
+  <si>
+    <t>to play (piano, guitar)</t>
+  </si>
+  <si>
+    <t>ひくい</t>
+  </si>
+  <si>
+    <t>低い</t>
+  </si>
+  <si>
+    <t>short, low</t>
+  </si>
+  <si>
+    <t>ひこうき</t>
+  </si>
+  <si>
+    <t>飛行機</t>
+  </si>
+  <si>
+    <t>aeroplane, airplane</t>
+  </si>
+  <si>
+    <t>ひだり</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>left hand side</t>
+  </si>
+  <si>
+    <t>ひと</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>man, person</t>
+  </si>
+  <si>
+    <t>ひとつ</t>
+  </si>
+  <si>
+    <t>一つ</t>
+  </si>
+  <si>
+    <t>ひとつき</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>one month</t>
+  </si>
+  <si>
+    <t>ひとり</t>
+  </si>
+  <si>
+    <t>一人</t>
+  </si>
+  <si>
+    <t>one person</t>
+  </si>
+  <si>
+    <t>ひま</t>
+  </si>
+  <si>
+    <t>暇</t>
+  </si>
+  <si>
+    <t>free time, leisure</t>
+  </si>
+  <si>
+    <t>ひゃく</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>100, hundred</t>
+  </si>
+  <si>
+    <t>びょういん</t>
+  </si>
+  <si>
+    <t>病院</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>びょうき</t>
+  </si>
+  <si>
+    <t>病気</t>
+  </si>
+  <si>
+    <t>illness, disease, sickness</t>
+  </si>
+  <si>
+    <t>ひらがな</t>
+  </si>
+  <si>
+    <t>平仮名</t>
+  </si>
+  <si>
+    <t>hiragana</t>
+  </si>
+  <si>
+    <t>ひる</t>
+  </si>
+  <si>
+    <t>昼</t>
+  </si>
+  <si>
+    <t>noon, daytime</t>
+  </si>
+  <si>
+    <t>ひるごはん</t>
+  </si>
+  <si>
+    <t>昼御飯</t>
+  </si>
+  <si>
+    <t>lunch, midday meal</t>
+  </si>
+  <si>
+    <t>ひろい</t>
+  </si>
+  <si>
+    <t>広い</t>
+  </si>
+  <si>
+    <t>spacious, wide</t>
+  </si>
+  <si>
+    <t>フィルム</t>
+  </si>
+  <si>
+    <t>film (roll of)</t>
+  </si>
+  <si>
+    <t>ふうとう</t>
+  </si>
+  <si>
+    <t>封筒</t>
+  </si>
+  <si>
+    <t>envelope</t>
+  </si>
+  <si>
+    <t>プール</t>
+  </si>
+  <si>
+    <t>swimming pool</t>
+  </si>
+  <si>
+    <t>フォーク</t>
+  </si>
+  <si>
+    <t>fork</t>
+  </si>
+  <si>
+    <t>ふく</t>
+  </si>
+  <si>
+    <t>吹く</t>
+  </si>
+  <si>
+    <t>to blow (wind, etc)</t>
+  </si>
+  <si>
+    <t>服</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>ふたつ</t>
+  </si>
+  <si>
+    <t>二つ</t>
+  </si>
+  <si>
+    <t>ぶたにく</t>
+  </si>
+  <si>
+    <t>豚肉</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>ふたり</t>
+  </si>
+  <si>
+    <t>二人</t>
+  </si>
+  <si>
+    <t>two people</t>
+  </si>
+  <si>
+    <t>ふつか</t>
+  </si>
+  <si>
+    <t>二日</t>
+  </si>
+  <si>
+    <t>second day of the month, two days</t>
+  </si>
+  <si>
+    <t>ふとい</t>
+  </si>
+  <si>
+    <t>太い</t>
+  </si>
+  <si>
+    <t>fat, thick</t>
+  </si>
+  <si>
+    <t>ふゆ</t>
+  </si>
+  <si>
+    <t>冬</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>ふる</t>
+  </si>
+  <si>
+    <t>降る</t>
+  </si>
+  <si>
+    <t>to precipitate, to fall (e.g. rain)</t>
+  </si>
+  <si>
+    <t>ふるい</t>
+  </si>
+  <si>
+    <t>古い</t>
+  </si>
+  <si>
+    <t>old (not person), aged, ancient</t>
+  </si>
+  <si>
+    <t>ふろ</t>
+  </si>
+  <si>
+    <t>～ふん</t>
+  </si>
+  <si>
+    <t>～分</t>
+  </si>
+  <si>
+    <t>～minutes</t>
+  </si>
+  <si>
+    <t>ぶんしょう</t>
+  </si>
+  <si>
+    <t>文章</t>
+  </si>
+  <si>
+    <t>sentence, text</t>
+  </si>
+  <si>
+    <t>ページ</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>へた</t>
+  </si>
+  <si>
+    <t>下手</t>
+  </si>
+  <si>
+    <t>unskillful, poor</t>
+  </si>
+  <si>
+    <t>ベッド</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>ペット</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>へや</t>
+  </si>
+  <si>
+    <t>部屋</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>へん</t>
+  </si>
+  <si>
+    <t>辺</t>
+  </si>
+  <si>
+    <t>area, vicinity</t>
+  </si>
+  <si>
+    <t>ペン</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>べんきょう（する）</t>
+  </si>
+  <si>
+    <t>勉強</t>
+  </si>
+  <si>
+    <t>study, diligence</t>
+  </si>
+  <si>
+    <t>べんり</t>
+  </si>
+  <si>
+    <t>便利</t>
+  </si>
+  <si>
+    <t>convenient, handy</t>
+  </si>
+  <si>
+    <t>ほう</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>ぼうし</t>
+  </si>
+  <si>
+    <t>帽子</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>ボールペン</t>
+  </si>
+  <si>
+    <t>ball-point pen</t>
+  </si>
+  <si>
+    <t>ほか</t>
+  </si>
+  <si>
+    <t>other place, the rest</t>
+  </si>
+  <si>
+    <t>ポケット</t>
+  </si>
+  <si>
+    <t>pocket</t>
+  </si>
+  <si>
+    <t>ほしい</t>
+  </si>
+  <si>
+    <t>欲しい</t>
+  </si>
+  <si>
+    <t>want, in need of, desire</t>
+  </si>
+  <si>
+    <t>ポスト</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>ほそい</t>
+  </si>
+  <si>
+    <t>細い</t>
+  </si>
+  <si>
+    <t>thin, slender, fine</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>ホテル</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>ほん</t>
+  </si>
+  <si>
+    <t>本</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>～ほん</t>
+  </si>
+  <si>
+    <t>～本</t>
+  </si>
+  <si>
+    <t>counter for long cylindrical things</t>
+  </si>
+  <si>
+    <t>ほんだな</t>
+  </si>
+  <si>
+    <t>本棚</t>
+  </si>
+  <si>
+    <t>bookshelves</t>
+  </si>
+  <si>
+    <t>ほんとう</t>
+  </si>
+  <si>
+    <t>reality, truth</t>
+  </si>
+  <si>
+    <t>～まい</t>
+  </si>
+  <si>
+    <t>～枚</t>
+  </si>
+  <si>
+    <t>counter for flat things</t>
+  </si>
+  <si>
+    <t>まいあさ</t>
+  </si>
+  <si>
+    <t>毎朝</t>
+  </si>
+  <si>
+    <t>every morning</t>
+  </si>
+  <si>
+    <t>まいげつ/まいつき</t>
+  </si>
+  <si>
+    <t>毎月</t>
+  </si>
+  <si>
+    <t>every month, monthly</t>
+  </si>
+  <si>
+    <t>まいしゅう</t>
+  </si>
+  <si>
+    <t>毎週</t>
+  </si>
+  <si>
+    <t>every week</t>
+  </si>
+  <si>
+    <t>まいにち</t>
+  </si>
+  <si>
+    <t>毎日</t>
+  </si>
+  <si>
+    <t>every day</t>
+  </si>
+  <si>
+    <t>まいねん/まいとし</t>
+  </si>
+  <si>
+    <t>毎年</t>
+  </si>
+  <si>
+    <t>every year, annually</t>
+  </si>
+  <si>
+    <t>まいばん</t>
+  </si>
+  <si>
+    <t>毎晩</t>
+  </si>
+  <si>
+    <t>every night</t>
+  </si>
+  <si>
+    <t>まえ</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>n-adv,n-t,suf</t>
+  </si>
+  <si>
+    <t>before, in front</t>
+  </si>
+  <si>
+    <t>～まえ</t>
+  </si>
+  <si>
+    <t>～前</t>
+  </si>
+  <si>
+    <t>in front of ～</t>
+  </si>
+  <si>
+    <t>まがる</t>
+  </si>
+  <si>
+    <t>曲る</t>
+  </si>
+  <si>
+    <t>to turn, to bend</t>
+  </si>
+  <si>
+    <t>まずい</t>
+  </si>
+  <si>
+    <t>unappetising, unpleasant (taste)</t>
+  </si>
+  <si>
+    <t>また</t>
+  </si>
+  <si>
+    <t>adv,conj,n</t>
+  </si>
+  <si>
+    <t>again, and</t>
+  </si>
+  <si>
+    <t>まだ</t>
+  </si>
+  <si>
+    <t>yet, still, besides</t>
+  </si>
+  <si>
+    <t>まち</t>
+  </si>
+  <si>
+    <t>町</t>
+  </si>
+  <si>
+    <t>town, city</t>
+  </si>
+  <si>
+    <t>まつ</t>
+  </si>
+  <si>
+    <t>待つ</t>
+  </si>
+  <si>
+    <t>to wait</t>
+  </si>
+  <si>
+    <t>まっすぐ</t>
+  </si>
+  <si>
+    <t>straight (ahead), direct</t>
+  </si>
+  <si>
+    <t>マッチ</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>まど</t>
+  </si>
+  <si>
+    <t>窓</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>まるい</t>
+  </si>
+  <si>
+    <t>丸い/円い</t>
+  </si>
+  <si>
+    <t>round, circular</t>
+  </si>
+  <si>
+    <t>まん</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>adv,num</t>
+  </si>
+  <si>
+    <t>ten thousand, everything</t>
+  </si>
+  <si>
+    <t>まんねんひつ</t>
+  </si>
+  <si>
+    <t>万年筆</t>
+  </si>
+  <si>
+    <t>fountain pen</t>
+  </si>
+  <si>
+    <t>みがく</t>
+  </si>
+  <si>
+    <t>磨く</t>
+  </si>
+  <si>
+    <t>to brush (teeth)</t>
+  </si>
+  <si>
+    <t>みぎ</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>right hand side</t>
+  </si>
+  <si>
+    <t>みじかい</t>
+  </si>
+  <si>
+    <t>短い</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>みず</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>みせ</t>
+  </si>
+  <si>
+    <t>店</t>
+  </si>
+  <si>
+    <t>store, shop, establishment</t>
+  </si>
+  <si>
+    <t>みせる</t>
+  </si>
+  <si>
+    <t>見せる</t>
+  </si>
+  <si>
+    <t>to show, to display</t>
+  </si>
+  <si>
+    <t>みち</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>road, street</t>
+  </si>
+  <si>
+    <t>みっか</t>
+  </si>
+  <si>
+    <t>三日</t>
+  </si>
+  <si>
+    <t>three days, the third day (of the month)</t>
+  </si>
+  <si>
+    <t>みっつ</t>
+  </si>
+  <si>
+    <t>三つ</t>
+  </si>
+  <si>
+    <t>みどり</t>
+  </si>
+  <si>
+    <t>緑</t>
+  </si>
+  <si>
+    <t>green</t>
   </si>
 </sst>
 </file>
@@ -4555,15 +5770,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B501"/>
+  <dimension ref="A1:B651"/>
   <sheetViews>
-    <sheetView topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="B501" sqref="B501"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8147,6 +9360,1110 @@
       </c>
       <c r="B501" s="7" t="s">
         <v>1381</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B503" s="7" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B504" s="7" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B505" s="7" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B506" s="7" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B507" s="7" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B509" s="7" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B510" s="7" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B511" s="7" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B512" s="7" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="5" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B514" s="7" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B516" s="7" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="5" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B518" s="7" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B519" s="7" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B520" s="7" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B521" s="7" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B522" s="7" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="5" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B525" s="7" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B526" s="7" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B527" s="7" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B528" s="7" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="5" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B530" s="7" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B531" s="7" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B533" s="7" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B534" s="7" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B535" s="7" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B536" s="7" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="5" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B539" s="7" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B540" s="7" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B541" s="7" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B542" s="7" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B543" s="7" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B544" s="7" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B545" s="7" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B546" s="7" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B547" s="7" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B548" s="7" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B549" s="7" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B550" s="7" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B551" s="7" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B552" s="7" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B554" s="7" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B555" s="7" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B556" s="7" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="5" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B559" s="7" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B560" s="7" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B561" s="7" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B562" s="7" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B563" s="7" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B564" s="7" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="5" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B565" s="7" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B566" s="7" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B567" s="7" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B568" s="7" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B569" s="7" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B570" s="7" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="5" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B571" s="7" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B572" s="7" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B573" s="7" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B574" s="7" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B576" s="7" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B577" s="7" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B578" s="7" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B579" s="7" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B580" s="7" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="5" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B582" s="7" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="5" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="2" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B585" s="7" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B586" s="7" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B588" s="7" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="5" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B590" s="7" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B591" s="7" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B592" s="7" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B593" s="7" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B594" s="7" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="5" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B596" s="7" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" s="5" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B597" s="7" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B599" s="7" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="5" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B602" s="7" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="5" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B603" s="7" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" s="2" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" s="5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B605" s="7" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B606" s="7" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" s="5" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B608" s="7" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="5" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B610" s="7" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" s="5" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B612" s="7" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" s="5" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B614" s="7" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" s="5" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" s="2" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B617" s="7" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B618" s="7" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" s="5" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B619" s="7" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="2" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" s="5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B621" s="7" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B622" s="7" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B623" s="7" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B624" s="7" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="5" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B625" s="7" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B626" s="7" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="5" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B627" s="7" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B628" s="7" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B629" s="7" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B630" s="7" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="5" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="2" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="5" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B634" s="7" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="5" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B635" s="7" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" s="2" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="5" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B638" s="7" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="5" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B639" s="7" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B640" s="7" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B641" s="7" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B642" s="7" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B643" s="7" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B644" s="7" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="5" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B645" s="7" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B646" s="7" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B647" s="7" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B648" s="7" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B649" s="7" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B650" s="7" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B651" s="7" t="s">
+        <v>1786</v>
       </c>
     </row>
   </sheetData>
@@ -8157,14 +10474,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:E651"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.140625" style="8" bestFit="1" customWidth="1"/>
@@ -16244,6 +18563,2442 @@
         <v>1382</v>
       </c>
     </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>501</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="4">
+        <v>502</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C503" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D503" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E503" s="6" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>503</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C504" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="4">
+        <v>504</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C505" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D505" s="4"/>
+      <c r="E505" s="6" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>505</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C506" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="4">
+        <v>506</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C507" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D507" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E507" s="6" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>507</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" s="4">
+        <v>508</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C509" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D509" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E509" s="6" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>509</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C510" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="D510" s="1"/>
+      <c r="E510" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="4">
+        <v>510</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C511" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D511" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E511" s="6" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>511</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C512" s="7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="4">
+        <v>512</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D513" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E513" s="6" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>513</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C514" s="7" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="4">
+        <v>514</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C515" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D515" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E515" s="6" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>515</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C516" s="7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D516" s="1"/>
+      <c r="E516" s="3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="4">
+        <v>516</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D517" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E517" s="6" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>517</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C518" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" s="4">
+        <v>518</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C519" s="7" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D519" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E519" s="6" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>519</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C520" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" s="4">
+        <v>520</v>
+      </c>
+      <c r="B521" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C521" s="7" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D521" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E521" s="6" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>521</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C522" s="7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" s="4">
+        <v>522</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D523" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E523" s="6" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>523</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" s="4">
+        <v>524</v>
+      </c>
+      <c r="B525" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C525" s="7" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D525" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E525" s="6" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C526" s="7" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" s="4">
+        <v>526</v>
+      </c>
+      <c r="B527" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C527" s="7" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D527" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E527" s="6" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>527</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C528" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" s="4">
+        <v>528</v>
+      </c>
+      <c r="B529" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D529" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E529" s="6" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>529</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C530" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" s="4">
+        <v>530</v>
+      </c>
+      <c r="B531" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C531" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D531" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E531" s="6" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>531</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="4">
+        <v>532</v>
+      </c>
+      <c r="B533" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C533" s="7" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D533" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E533" s="6" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>533</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C534" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="4">
+        <v>534</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C535" s="7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D535" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E535" s="6" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>535</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C536" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="4">
+        <v>536</v>
+      </c>
+      <c r="B537" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D537" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E537" s="6" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>537</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="4">
+        <v>538</v>
+      </c>
+      <c r="B539" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C539" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D539" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E539" s="6" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>539</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C540" s="7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="4">
+        <v>540</v>
+      </c>
+      <c r="B541" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C541" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D541" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E541" s="6" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>541</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C542" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" s="4">
+        <v>542</v>
+      </c>
+      <c r="B543" s="5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C543" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D543" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E543" s="6" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>543</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C544" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" s="4">
+        <v>544</v>
+      </c>
+      <c r="B545" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C545" s="7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D545" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E545" s="6" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>545</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C546" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" s="4">
+        <v>546</v>
+      </c>
+      <c r="B547" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C547" s="7" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D547" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E547" s="6" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>547</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C548" s="7" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" s="4">
+        <v>548</v>
+      </c>
+      <c r="B549" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C549" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D549" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E549" s="6" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>549</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C550" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" s="4">
+        <v>550</v>
+      </c>
+      <c r="B551" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C551" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D551" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E551" s="6" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>551</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C552" s="7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" s="4">
+        <v>552</v>
+      </c>
+      <c r="B553" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C553" s="7" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D553" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E553" s="6" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>553</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C554" s="7" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" s="4">
+        <v>554</v>
+      </c>
+      <c r="B555" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C555" s="7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D555" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E555" s="6" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C556" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" s="4">
+        <v>556</v>
+      </c>
+      <c r="B557" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D557" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E557" s="6" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" s="4">
+        <v>558</v>
+      </c>
+      <c r="B559" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C559" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D559" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E559" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>559</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C560" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" s="4">
+        <v>560</v>
+      </c>
+      <c r="B561" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C561" s="7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D561" s="4"/>
+      <c r="E561" s="6" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>561</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C562" s="7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" s="4">
+        <v>562</v>
+      </c>
+      <c r="B563" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C563" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D563" s="4"/>
+      <c r="E563" s="6" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>563</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C564" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" s="4">
+        <v>564</v>
+      </c>
+      <c r="B565" s="5" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C565" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D565" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E565" s="6" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>565</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C566" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567" s="4">
+        <v>566</v>
+      </c>
+      <c r="B567" s="5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C567" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D567" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E567" s="6" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>567</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C568" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" s="4">
+        <v>568</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C569" s="7" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D569" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E569" s="6" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>569</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C570" s="7" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" s="4">
+        <v>570</v>
+      </c>
+      <c r="B571" s="5" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C571" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D571" s="4"/>
+      <c r="E571" s="6" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>571</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C572" s="7" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" s="4">
+        <v>572</v>
+      </c>
+      <c r="B573" s="5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C573" s="7" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D573" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E573" s="6" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>573</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C574" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" s="4">
+        <v>574</v>
+      </c>
+      <c r="B575" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C575" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D575" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E575" s="6" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>575</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C576" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A577" s="4">
+        <v>576</v>
+      </c>
+      <c r="B577" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C577" s="7" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D577" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E577" s="6" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>577</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C578" s="7" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579" s="4">
+        <v>578</v>
+      </c>
+      <c r="B579" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C579" s="7" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D579" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E579" s="6" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>579</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C580" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" s="4">
+        <v>580</v>
+      </c>
+      <c r="B581" s="5" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D581" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E581" s="6" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>581</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C582" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" s="4">
+        <v>582</v>
+      </c>
+      <c r="B583" s="5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D583" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E583" s="6" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>583</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" s="4">
+        <v>584</v>
+      </c>
+      <c r="B585" s="5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C585" s="7" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D585" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E585" s="6" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>585</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C586" s="7" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" s="4">
+        <v>586</v>
+      </c>
+      <c r="B587" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C587" s="7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D587" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E587" s="6" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>587</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C588" s="7" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589" s="4">
+        <v>588</v>
+      </c>
+      <c r="B589" s="5" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C589" s="7" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D589" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E589" s="6" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>589</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C590" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591" s="4">
+        <v>590</v>
+      </c>
+      <c r="B591" s="5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C591" s="7" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D591" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E591" s="6" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>591</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C592" s="7" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" s="4">
+        <v>592</v>
+      </c>
+      <c r="B593" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C593" s="7" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D593" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E593" s="6" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>593</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C594" s="7" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" s="4">
+        <v>594</v>
+      </c>
+      <c r="B595" s="5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D595" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E595" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>595</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C596" s="7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" s="4">
+        <v>596</v>
+      </c>
+      <c r="B597" s="5" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C597" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D597" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E597" s="6" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>597</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" s="4">
+        <v>598</v>
+      </c>
+      <c r="B599" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C599" s="7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D599" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E599" s="6" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>599</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A601" s="4">
+        <v>600</v>
+      </c>
+      <c r="B601" s="5" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D601" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E601" s="6" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>601</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C602" s="7" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603" s="4">
+        <v>602</v>
+      </c>
+      <c r="B603" s="5" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C603" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D603" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E603" s="6" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>603</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605" s="4">
+        <v>604</v>
+      </c>
+      <c r="B605" s="5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C605" s="7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D605" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E605" s="6" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>605</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C606" s="7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607" s="4">
+        <v>606</v>
+      </c>
+      <c r="B607" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D607" s="4"/>
+      <c r="E607" s="6" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>607</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C608" s="7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" s="4">
+        <v>608</v>
+      </c>
+      <c r="B609" s="5" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D609" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E609" s="6" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>609</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C610" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" s="4">
+        <v>610</v>
+      </c>
+      <c r="B611" s="5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D611" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E611" s="6" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
+        <v>611</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C612" s="7" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" s="4">
+        <v>612</v>
+      </c>
+      <c r="B613" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D613" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E613" s="6" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>613</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C614" s="7" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615" s="4">
+        <v>614</v>
+      </c>
+      <c r="B615" s="5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D615" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E615" s="6" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>615</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" s="4">
+        <v>616</v>
+      </c>
+      <c r="B617" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C617" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D617" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E617" s="6" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>617</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C618" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D618" s="1"/>
+      <c r="E618" s="3" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619" s="4">
+        <v>618</v>
+      </c>
+      <c r="B619" s="5" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C619" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D619" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E619" s="6" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
+        <v>619</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621" s="4">
+        <v>620</v>
+      </c>
+      <c r="B621" s="5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C621" s="7" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D621" s="4"/>
+      <c r="E621" s="6" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
+        <v>621</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C622" s="7" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" s="4">
+        <v>622</v>
+      </c>
+      <c r="B623" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C623" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D623" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E623" s="6" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
+        <v>623</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C624" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625" s="4">
+        <v>624</v>
+      </c>
+      <c r="B625" s="5" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C625" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D625" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E625" s="6" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
+        <v>625</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C626" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E626" s="3" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627" s="4">
+        <v>626</v>
+      </c>
+      <c r="B627" s="5" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C627" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D627" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E627" s="6" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
+        <v>627</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C628" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A629" s="4">
+        <v>628</v>
+      </c>
+      <c r="B629" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C629" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D629" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E629" s="6" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
+        <v>629</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C630" s="7" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A631" s="4">
+        <v>630</v>
+      </c>
+      <c r="B631" s="5" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D631" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E631" s="6" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
+        <v>631</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633" s="4">
+        <v>632</v>
+      </c>
+      <c r="B633" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D633" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E633" s="6" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
+        <v>633</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C634" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E634" s="3" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635" s="4">
+        <v>634</v>
+      </c>
+      <c r="B635" s="5" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C635" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D635" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E635" s="6" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
+        <v>635</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637" s="4">
+        <v>636</v>
+      </c>
+      <c r="B637" s="5" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D637" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E637" s="6" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>637</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C638" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639" s="4">
+        <v>638</v>
+      </c>
+      <c r="B639" s="5" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C639" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D639" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E639" s="6" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>639</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C640" s="7" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641" s="4">
+        <v>640</v>
+      </c>
+      <c r="B641" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C641" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D641" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E641" s="6" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
+        <v>641</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C642" s="7" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" s="4">
+        <v>642</v>
+      </c>
+      <c r="B643" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C643" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D643" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E643" s="6" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>643</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C644" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645" s="4">
+        <v>644</v>
+      </c>
+      <c r="B645" s="5" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C645" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D645" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E645" s="6" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>645</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C646" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" s="4">
+        <v>646</v>
+      </c>
+      <c r="B647" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C647" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D647" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E647" s="6" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>647</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C648" s="7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649" s="4">
+        <v>648</v>
+      </c>
+      <c r="B649" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C649" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D649" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E649" s="6" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>649</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C650" s="7" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E650" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651" s="4">
+        <v>650</v>
+      </c>
+      <c r="B651" s="5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C651" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D651" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E651" s="6" t="s">
+        <v>1787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/jlptstudy.net/Vocabulary.xlsx
+++ b/jlptstudy.net/Vocabulary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3540" uniqueCount="1788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3819" uniqueCount="1923">
   <si>
     <t>ああ</t>
   </si>
@@ -5384,6 +5384,411 @@
   </si>
   <si>
     <t>green</t>
+  </si>
+  <si>
+    <t>みなさん</t>
+  </si>
+  <si>
+    <t>皆さん</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>みなみ</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>South, proceeding south</t>
+  </si>
+  <si>
+    <t>みみ</t>
+  </si>
+  <si>
+    <t>耳</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>みる</t>
+  </si>
+  <si>
+    <t>見る</t>
+  </si>
+  <si>
+    <t>to see, to watch</t>
+  </si>
+  <si>
+    <t>みんな</t>
+  </si>
+  <si>
+    <t>all, everyone, everybody</t>
+  </si>
+  <si>
+    <t>むいか</t>
+  </si>
+  <si>
+    <t>六日</t>
+  </si>
+  <si>
+    <t>six days, sixth (day of month)</t>
+  </si>
+  <si>
+    <t>むこう</t>
+  </si>
+  <si>
+    <t>向こう</t>
+  </si>
+  <si>
+    <t>beyond, over there</t>
+  </si>
+  <si>
+    <t>むずかしい</t>
+  </si>
+  <si>
+    <t>難しい</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>むっつ</t>
+  </si>
+  <si>
+    <t>六つ</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>むら</t>
+  </si>
+  <si>
+    <t>村</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>め</t>
+  </si>
+  <si>
+    <t>目</t>
+  </si>
+  <si>
+    <t>eye, eyeball</t>
+  </si>
+  <si>
+    <t>メートル</t>
+  </si>
+  <si>
+    <t>metre, meter</t>
+  </si>
+  <si>
+    <t>めがね</t>
+  </si>
+  <si>
+    <t>眼鏡</t>
+  </si>
+  <si>
+    <t>spectacles, glasses</t>
+  </si>
+  <si>
+    <t>もう</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>もくようび</t>
+  </si>
+  <si>
+    <t>木曜日</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>もしもし</t>
+  </si>
+  <si>
+    <t>hello (on phone)</t>
+  </si>
+  <si>
+    <t>もつ</t>
+  </si>
+  <si>
+    <t>持つ</t>
+  </si>
+  <si>
+    <t>(1) to hold, to carry, (2) to possess</t>
+  </si>
+  <si>
+    <t>もっと</t>
+  </si>
+  <si>
+    <t>more, longer, farther</t>
+  </si>
+  <si>
+    <t>もの</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>thing, object</t>
+  </si>
+  <si>
+    <t>もん</t>
+  </si>
+  <si>
+    <t>門</t>
+  </si>
+  <si>
+    <t>gate</t>
+  </si>
+  <si>
+    <t>もんだい</t>
+  </si>
+  <si>
+    <t>問題</t>
+  </si>
+  <si>
+    <t>problem, question</t>
+  </si>
+  <si>
+    <t>～や</t>
+  </si>
+  <si>
+    <t>屋</t>
+  </si>
+  <si>
+    <t>～ shop</t>
+  </si>
+  <si>
+    <t>やおや</t>
+  </si>
+  <si>
+    <t>八百屋</t>
+  </si>
+  <si>
+    <t>greengrocer</t>
+  </si>
+  <si>
+    <t>やさい</t>
+  </si>
+  <si>
+    <t>野菜</t>
+  </si>
+  <si>
+    <t>vegetable</t>
+  </si>
+  <si>
+    <t>やさしい</t>
+  </si>
+  <si>
+    <t>易しい</t>
+  </si>
+  <si>
+    <t>easy, plain, simple</t>
+  </si>
+  <si>
+    <t>やすい</t>
+  </si>
+  <si>
+    <t>安い</t>
+  </si>
+  <si>
+    <t>cheap, inexpensive</t>
+  </si>
+  <si>
+    <t>やすみ</t>
+  </si>
+  <si>
+    <t>休み</t>
+  </si>
+  <si>
+    <t>rest, vacation, holiday</t>
+  </si>
+  <si>
+    <t>やすむ</t>
+  </si>
+  <si>
+    <t>休む</t>
+  </si>
+  <si>
+    <t>to rest, to have a break, to take a day off</t>
+  </si>
+  <si>
+    <t>やっつ</t>
+  </si>
+  <si>
+    <t>八つ</t>
+  </si>
+  <si>
+    <t>やま</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>やる</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>ゆうがた</t>
+  </si>
+  <si>
+    <t>夕方</t>
+  </si>
+  <si>
+    <t>ゆうはん</t>
+  </si>
+  <si>
+    <t>夕飯</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>ゆうびんきょく</t>
+  </si>
+  <si>
+    <t>郵便局</t>
+  </si>
+  <si>
+    <t>post office</t>
+  </si>
+  <si>
+    <t>ゆうべ</t>
+  </si>
+  <si>
+    <t>昨夜</t>
+  </si>
+  <si>
+    <t>last night</t>
+  </si>
+  <si>
+    <t>ゆうめい</t>
+  </si>
+  <si>
+    <t>有名</t>
+  </si>
+  <si>
+    <t>famous</t>
+  </si>
+  <si>
+    <t>ゆき</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>ゆっくり・と</t>
+  </si>
+  <si>
+    <t>slowly, at ease</t>
+  </si>
+  <si>
+    <t>ようか</t>
+  </si>
+  <si>
+    <t>八日</t>
+  </si>
+  <si>
+    <t>eight days, the eighth (day of the month)</t>
+  </si>
+  <si>
+    <t>ようふく</t>
+  </si>
+  <si>
+    <t>洋服</t>
+  </si>
+  <si>
+    <t>Western-style clothes</t>
+  </si>
+  <si>
+    <t>よく</t>
+  </si>
+  <si>
+    <t>frequently, often</t>
+  </si>
+  <si>
+    <t>well, skillfully</t>
+  </si>
+  <si>
+    <t>よこ</t>
+  </si>
+  <si>
+    <t>横</t>
+  </si>
+  <si>
+    <t>beside, side, width</t>
+  </si>
+  <si>
+    <t>よっか</t>
+  </si>
+  <si>
+    <t>四日</t>
+  </si>
+  <si>
+    <t>(1) 4th day of month, (2) four days</t>
+  </si>
+  <si>
+    <t>よっつ</t>
+  </si>
+  <si>
+    <t>四つ</t>
+  </si>
+  <si>
+    <t>よぶ</t>
+  </si>
+  <si>
+    <t>呼ぶ</t>
+  </si>
+  <si>
+    <t>to call out, to invite</t>
+  </si>
+  <si>
+    <t>よむ</t>
+  </si>
+  <si>
+    <t>読む</t>
+  </si>
+  <si>
+    <t>to read</t>
+  </si>
+  <si>
+    <t>よる</t>
+  </si>
+  <si>
+    <t>夜</t>
+  </si>
+  <si>
+    <t>evening, night</t>
+  </si>
+  <si>
+    <t>よわい</t>
+  </si>
+  <si>
+    <t>弱い</t>
+  </si>
+  <si>
+    <t>weak, feable</t>
   </si>
 </sst>
 </file>
@@ -5770,7 +6175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B651"/>
+  <dimension ref="A1:B701"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10466,6 +10871,376 @@
         <v>1786</v>
       </c>
     </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B652" s="7" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B653" s="7" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B654" s="7" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="5" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B655" s="7" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="2" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="5" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B657" s="7" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B658" s="7" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="5" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B659" s="7" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B660" s="7" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B661" s="7" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B662" s="7" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="5" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B664" s="7" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" s="5" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" s="2" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B667" s="7" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" s="2" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B669" s="7" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" s="2" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" s="5" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B671" s="7" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B672" s="7" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" s="5" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B673" s="7" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B674" s="7" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" s="5" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B675" s="7" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B676" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" s="5" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B677" s="7" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B678" s="7" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B679" s="7" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B680" s="7" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B681" s="7" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B682" s="7" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" s="5" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B684" s="7" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" s="5" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B685" s="7" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B686" s="7" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B687" s="7" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B688" s="7" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" s="5" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B689" s="7" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" s="2" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" s="5" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B691" s="7" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B692" s="7" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" s="5" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" s="2" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" s="5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B695" s="7" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" s="2" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B696" s="7" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" s="5" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B697" s="7" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B698" s="7" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" s="5" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B699" s="7" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B700" s="7" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B701" s="7" t="s">
+        <v>1921</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10474,11 +11249,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E651"/>
+  <dimension ref="A1:E701"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.85546875" defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20999,6 +21772,824 @@
         <v>1787</v>
       </c>
     </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>651</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C652" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E652" s="3" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" s="4">
+        <v>652</v>
+      </c>
+      <c r="B653" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C653" s="7" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D653" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E653" s="6" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>653</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C654" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E654" s="3" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655" s="4">
+        <v>654</v>
+      </c>
+      <c r="B655" s="5" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C655" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D655" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E655" s="6" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>655</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E656" s="3" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" s="4">
+        <v>656</v>
+      </c>
+      <c r="B657" s="5" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C657" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D657" s="4"/>
+      <c r="E657" s="6" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>657</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C658" s="7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659" s="4">
+        <v>658</v>
+      </c>
+      <c r="B659" s="5" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C659" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D659" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E659" s="6" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>659</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C660" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661" s="4">
+        <v>660</v>
+      </c>
+      <c r="B661" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C661" s="7" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D661" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E661" s="6" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>661</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C662" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663" s="4">
+        <v>662</v>
+      </c>
+      <c r="B663" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D663" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E663" s="6" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>663</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C664" s="7" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665" s="4">
+        <v>664</v>
+      </c>
+      <c r="B665" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D665" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E665" s="6" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>665</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A667" s="4">
+        <v>666</v>
+      </c>
+      <c r="B667" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C667" s="7" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D667" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E667" s="6" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>667</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669" s="4">
+        <v>668</v>
+      </c>
+      <c r="B669" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C669" s="7" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D669" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E669" s="6" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>669</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671" s="4">
+        <v>670</v>
+      </c>
+      <c r="B671" s="5" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C671" s="7" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D671" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E671" s="6" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A672" s="1">
+        <v>671</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C672" s="7" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A673" s="4">
+        <v>672</v>
+      </c>
+      <c r="B673" s="5" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C673" s="7" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D673" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E673" s="6" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A674" s="1">
+        <v>673</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C674" s="7" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A675" s="4">
+        <v>674</v>
+      </c>
+      <c r="B675" s="5" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C675" s="7" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D675" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E675" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <v>675</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C676" s="7" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A677" s="4">
+        <v>676</v>
+      </c>
+      <c r="B677" s="5" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C677" s="7" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D677" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E677" s="6" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
+        <v>677</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C678" s="7" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A679" s="4">
+        <v>678</v>
+      </c>
+      <c r="B679" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C679" s="7" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D679" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E679" s="6" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680" s="1">
+        <v>679</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C680" s="7" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A681" s="4">
+        <v>680</v>
+      </c>
+      <c r="B681" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C681" s="7" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D681" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E681" s="6" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <v>681</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C682" s="7" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683" s="4">
+        <v>682</v>
+      </c>
+      <c r="B683" s="5" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D683" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E683" s="6" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <v>683</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C684" s="7" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A685" s="4">
+        <v>684</v>
+      </c>
+      <c r="B685" s="5" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C685" s="7" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D685" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E685" s="6" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686" s="1">
+        <v>685</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C686" s="7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A687" s="4">
+        <v>686</v>
+      </c>
+      <c r="B687" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C687" s="7" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D687" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E687" s="6" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>687</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C688" s="7" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689" s="4">
+        <v>688</v>
+      </c>
+      <c r="B689" s="5" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C689" s="7" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D689" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E689" s="6" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690" s="1">
+        <v>689</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691" s="4">
+        <v>690</v>
+      </c>
+      <c r="B691" s="5" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C691" s="7" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D691" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E691" s="6" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692" s="1">
+        <v>691</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C692" s="7" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693" s="4">
+        <v>692</v>
+      </c>
+      <c r="B693" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D693" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E693" s="6" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694" s="1">
+        <v>693</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695" s="4">
+        <v>694</v>
+      </c>
+      <c r="B695" s="5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C695" s="7" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D695" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E695" s="6" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696" s="1">
+        <v>695</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C696" s="7" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697" s="4">
+        <v>696</v>
+      </c>
+      <c r="B697" s="5" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C697" s="7" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D697" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E697" s="6" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" s="1">
+        <v>697</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C698" s="7" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699" s="4">
+        <v>698</v>
+      </c>
+      <c r="B699" s="5" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C699" s="7" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D699" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E699" s="6" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700" s="1">
+        <v>699</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C700" s="7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E700" s="3" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701" s="4">
+        <v>700</v>
+      </c>
+      <c r="B701" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C701" s="7" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D701" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E701" s="6" t="s">
+        <v>1922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
